--- a/Excel/E-commerce_meteora/E-commerce_Meteora_v1.0.xlsx
+++ b/Excel/E-commerce_meteora/E-commerce_Meteora_v1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c85b6e2554a4e58c/Documentos/GitHub/portfolio-em-dados/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c85b6e2554a4e58c/Documentos/GitHub/portfolio-em-dados/Excel/E-commerce_meteora/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="482" documentId="8_{48C75BA4-DA31-4225-B9C8-CE3DAD376FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{166DCE6E-D3B2-4EED-AB7A-C15E504ABA8A}"/>
   <bookViews>
-    <workbookView xWindow="372" yWindow="-108" windowWidth="22776" windowHeight="12456" tabRatio="797" firstSheet="1" activeTab="2" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="797" firstSheet="1" activeTab="2" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Meu Gráfico" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1783,7 +1783,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Meteora Ecommerce.xlsx]Planilha3!Tabela dinâmica85</c:name>
+    <c:name>[E-commerce_Meteora_v1.0.xlsx]Planilha3!Tabela dinâmica85</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -3412,7 +3412,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{37A4C077-C9C3-4E33-8B3E-9194B9F750DF}" name="Tabela dinâmica85" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{37A4C077-C9C3-4E33-8B3E-9194B9F750DF}" name="Tabela dinâmica85" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -10556,14 +10556,14 @@
         <v>49.9</v>
       </c>
       <c r="E260" s="19">
-        <f t="shared" ref="E260:E323" si="8">D260-(D260*$I$4)</f>
+        <f t="shared" ref="E260:E285" si="8">D260-(D260*$I$4)</f>
         <v>44.91</v>
       </c>
       <c r="F260" s="23">
         <v>60</v>
       </c>
       <c r="G260" s="28">
-        <f t="shared" ref="G260:G323" si="9">E260*F260</f>
+        <f t="shared" ref="G260:G285" si="9">E260*F260</f>
         <v>2694.6</v>
       </c>
     </row>
@@ -18954,14 +18954,14 @@
         <v>49.9</v>
       </c>
       <c r="E260" s="44">
-        <f t="shared" ref="E260:E323" si="8">D260-(D260*$I$4)</f>
+        <f t="shared" ref="E260:E285" si="8">D260-(D260*$I$4)</f>
         <v>44.91</v>
       </c>
       <c r="F260" s="43">
         <v>60</v>
       </c>
       <c r="G260" s="45">
-        <f t="shared" ref="G260:G323" si="9">E260*F260</f>
+        <f t="shared" ref="G260:G285" si="9">E260*F260</f>
         <v>2694.6</v>
       </c>
       <c r="H260" s="31"/>

--- a/Excel/E-commerce_meteora/E-commerce_Meteora_v1.0.xlsx
+++ b/Excel/E-commerce_meteora/E-commerce_Meteora_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c85b6e2554a4e58c/Documentos/GitHub/portfolio-em-dados/Excel/E-commerce_meteora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="482" documentId="8_{48C75BA4-DA31-4225-B9C8-CE3DAD376FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{166DCE6E-D3B2-4EED-AB7A-C15E504ABA8A}"/>
+  <xr:revisionPtr revIDLastSave="483" documentId="8_{48C75BA4-DA31-4225-B9C8-CE3DAD376FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11FF38EF-667D-46A5-82F7-631935B63043}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="797" firstSheet="1" activeTab="2" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
+    <workbookView xWindow="32355" yWindow="1815" windowWidth="21030" windowHeight="11325" tabRatio="797" firstSheet="1" activeTab="6" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Meu Gráfico" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="33" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3412,7 +3412,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{37A4C077-C9C3-4E33-8B3E-9194B9F750DF}" name="Tabela dinâmica85" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{37A4C077-C9C3-4E33-8B3E-9194B9F750DF}" name="Tabela dinâmica85" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -4075,7 +4075,7 @@
   </sheetPr>
   <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -19694,8 +19694,8 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19739,7 +19739,7 @@
       <c r="D3" s="78"/>
       <c r="E3" s="71"/>
       <c r="F3" s="79" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="G3" s="79"/>
       <c r="H3" s="79"/>
@@ -19783,15 +19783,15 @@
       <c r="E5" s="55"/>
       <c r="F5" s="57">
         <f>COUNTIF(int_Nome_Produto,F3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="57">
         <f>SUMIF(int_Nome_Produto,F3,int_Qtd_Produtos)</f>
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H5" s="59">
         <f>AVERAGEIF(int_Nome_Produto,Meus_Numeros_Lj_02!F3,int_Qtd_Produtos)</f>
-        <v>13.333333333333334</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">

--- a/Excel/E-commerce_meteora/E-commerce_Meteora_v1.0.xlsx
+++ b/Excel/E-commerce_meteora/E-commerce_Meteora_v1.0.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c85b6e2554a4e58c/Documentos/GitHub/portfolio-em-dados/Excel/E-commerce_meteora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="483" documentId="8_{48C75BA4-DA31-4225-B9C8-CE3DAD376FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11FF38EF-667D-46A5-82F7-631935B63043}"/>
+  <xr:revisionPtr revIDLastSave="487" documentId="8_{48C75BA4-DA31-4225-B9C8-CE3DAD376FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C34E6F1E-C1C3-4B75-A685-97AD466A2199}"/>
   <bookViews>
-    <workbookView xWindow="32355" yWindow="1815" windowWidth="21030" windowHeight="11325" tabRatio="797" firstSheet="1" activeTab="6" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
+    <workbookView xWindow="29835" yWindow="1170" windowWidth="27270" windowHeight="13440" tabRatio="797" activeTab="5" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Meu Gráfico" sheetId="6" r:id="rId1"/>
-    <sheet name="Planilha3" sheetId="5" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="5" state="hidden" r:id="rId2"/>
     <sheet name="Produtos_ (Com Tabela)_Lj_01" sheetId="2" r:id="rId3"/>
-    <sheet name="Meus_Numeros_Lj_01" sheetId="9" r:id="rId4"/>
+    <sheet name="Meus_Numeros_Lj_01" sheetId="9" state="hidden" r:id="rId4"/>
     <sheet name="Filtro AV" sheetId="7" r:id="rId5"/>
     <sheet name="Produtos_Lj_02" sheetId="1" r:id="rId6"/>
     <sheet name="Meus_Numeros_Lj_02" sheetId="8" r:id="rId7"/>
@@ -42,7 +42,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="33" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2954,7 +2954,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8D58BA28-6F2B-4BE7-9135-3BC55F666805}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2965,7 +2965,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8971643" cy="6213929"/>
+    <xdr:ext cx="12038542" cy="7500937"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -3412,7 +3412,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{37A4C077-C9C3-4E33-8B3E-9194B9F750DF}" name="Tabela dinâmica85" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{37A4C077-C9C3-4E33-8B3E-9194B9F750DF}" name="Tabela dinâmica85" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -3581,7 +3581,15 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9DDBCA65-023C-4EC1-98AB-9D3EFD52E7AF}" name="Tb_Produtos_Lj_01" displayName="Tb_Produtos_Lj_01" ref="A3:G286" totalsRowCount="1" headerRowDxfId="15" totalsRowDxfId="14" headerRowCellStyle="Cabeçalho_Meteora">
-  <autoFilter ref="A3:G285" xr:uid="{9DDBCA65-023C-4EC1-98AB-9D3EFD52E7AF}"/>
+  <autoFilter ref="A3:G285" xr:uid="{9DDBCA65-023C-4EC1-98AB-9D3EFD52E7AF}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G285">
     <sortCondition ref="A3:A285"/>
   </sortState>
@@ -4076,17 +4084,17 @@
   <dimension ref="A1:I286"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.21875" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
@@ -11345,7 +11353,7 @@
   <dimension ref="B1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11962,7 +11970,7 @@
   </sheetPr>
   <dimension ref="A1:I287"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="91" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="91" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -19694,8 +19702,8 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
